--- a/storage/files/template.xlsx
+++ b/storage/files/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haluong\Desktop\web\learning\php\laravel\multiauth\storage\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haluong\Desktop\web\learning\php\laravel\multiauth\storage\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -65,9 +65,6 @@
   <si>
     <t>Total</t>
   </si>
-  <si>
-    <t>IF([@[Start Time]] &lt;&gt; "" &amp; [@[End Time]]  &lt;&gt;  "", HOUR([@[End Time]]-[@[Start Time]])+MINUTE([@[End Time]]-[@[Start Time]])/60, 0)</t>
-  </si>
 </sst>
 </file>
 
@@ -76,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +97,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +118,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -137,12 +148,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,51 +265,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -212,6 +323,230 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,20 +562,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A6:G37" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A6:G37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A6:G34" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A6:G34">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="6"/>
-    <tableColumn id="2" name="Work Type" dataDxfId="5"/>
-    <tableColumn id="3" name="Project" dataDxfId="4"/>
-    <tableColumn id="4" name="Start Time" dataDxfId="3"/>
-    <tableColumn id="5" name="End Time" dataDxfId="2"/>
-    <tableColumn id="7" name="Total" dataDxfId="0">
-      <calculatedColumnFormula>IF(Table6[[#This Row],[Start Time]] &lt;&gt; "" &amp; Table6[[#This Row],[End Time]]  &lt;&gt;  "", HOUR(Table6[[#This Row],[End Time]]-Table6[[#This Row],[Start Time]])+MINUTE(Table6[[#This Row],[End Time]]-Table6[[#This Row],[Start Time]])/60, 0)</calculatedColumnFormula>
+    <tableColumn id="1" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" name="Work Type" dataDxfId="7"/>
+    <tableColumn id="3" name="Project" dataDxfId="6"/>
+    <tableColumn id="4" name="Start Time" dataDxfId="5"/>
+    <tableColumn id="5" name="End Time" dataDxfId="4"/>
+    <tableColumn id="7" name="Total" dataDxfId="3">
+      <calculatedColumnFormula>(E7-D7)*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Remarks" dataDxfId="1"/>
+    <tableColumn id="6" name="Remarks" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -507,542 +850,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:G40"/>
+  <dimension ref="A6:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="16" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>43405</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="6">
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>0.73958333333333337</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1"/>
+      <c r="F7" s="9">
+        <f t="shared" ref="F7:F34" si="0">(E7-D7)*24</f>
+        <v>9.25</v>
+      </c>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>43406</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>43407</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6">
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="8">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999982</v>
+      </c>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>43408</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>43409</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1"/>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>43410</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>43411</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1"/>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>43412</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1"/>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>43413</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="5">
         <v>43414</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>43415</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>43416</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>43417</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>43418</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="5">
         <v>43419</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1"/>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>43420</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="5">
         <v>43421</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="5">
         <v>43422</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="1"/>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="5">
         <v>43423</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1"/>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="5">
         <v>43424</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="1"/>
+      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="5">
         <v>43425</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="1"/>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="5">
         <v>43426</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="1"/>
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="5">
         <v>43427</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="1"/>
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="5">
         <v>43428</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="1"/>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="5">
         <v>43429</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1"/>
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="5">
         <v>43430</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="1"/>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="5">
         <v>43431</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="1"/>
+      <c r="B33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="5">
         <v>43432</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="1"/>
+      <c r="B34" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>43433</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>43434</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>43435</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:G37">
-    <cfRule type="expression" dxfId="10" priority="1">
+  <conditionalFormatting sqref="A7:G34">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B7="Annual Holiday"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$B7="Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1058,7 +1394,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:B39</xm:sqref>
+          <xm:sqref>B7:B36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/storage/files/template.xlsx
+++ b/storage/files/template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -311,20 +311,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -548,6 +534,20 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -562,7 +562,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A6:G34" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A6:G34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A6:G34">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -573,15 +573,15 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" name="Work Type" dataDxfId="7"/>
-    <tableColumn id="3" name="Project" dataDxfId="6"/>
-    <tableColumn id="4" name="Start Time" dataDxfId="5"/>
-    <tableColumn id="5" name="End Time" dataDxfId="4"/>
-    <tableColumn id="7" name="Total" dataDxfId="3">
+    <tableColumn id="1" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" name="Work Type" dataDxfId="5"/>
+    <tableColumn id="3" name="Project" dataDxfId="4"/>
+    <tableColumn id="4" name="Start Time" dataDxfId="3"/>
+    <tableColumn id="5" name="End Time" dataDxfId="2"/>
+    <tableColumn id="7" name="Total" dataDxfId="1">
       <calculatedColumnFormula>(E7-D7)*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Remarks" dataDxfId="2"/>
+    <tableColumn id="6" name="Remarks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -853,7 +853,7 @@
   <dimension ref="A6:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,32 +891,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>43405</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.73958333333333337</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="9">
         <f t="shared" ref="F7:F34" si="0">(E7-D7)*24</f>
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>43406</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
@@ -927,32 +915,20 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>43407</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
-        <v>8.9999999999999982</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>43408</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -963,12 +939,8 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>43409</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
@@ -979,12 +951,8 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>43410</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
@@ -995,12 +963,8 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>43411</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
@@ -1011,12 +975,8 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>43412</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
@@ -1027,32 +987,20 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>43413</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>43414</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
@@ -1063,12 +1011,8 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>43415</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -1079,12 +1023,8 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>43416</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
@@ -1095,12 +1035,8 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>43417</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
@@ -1111,12 +1047,8 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>43418</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
@@ -1127,12 +1059,8 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>43419</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
@@ -1143,12 +1071,8 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>43420</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
@@ -1159,12 +1083,8 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>43421</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
@@ -1175,12 +1095,8 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>43422</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
@@ -1191,12 +1107,8 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>43423</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
@@ -1207,12 +1119,8 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>43424</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
@@ -1223,12 +1131,8 @@
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>43425</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
@@ -1239,12 +1143,8 @@
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>43426</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6"/>
@@ -1255,12 +1155,8 @@
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>43427</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="6"/>
@@ -1271,12 +1167,8 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>43428</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
@@ -1287,12 +1179,8 @@
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>43429</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
@@ -1303,12 +1191,8 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>43430</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
@@ -1319,12 +1203,8 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>43431</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
@@ -1335,12 +1215,8 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>43432</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="11"/>
@@ -1375,10 +1251,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:G34">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$B7="Annual Holiday"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$B7="Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
